--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1893713.392531532</v>
+        <v>1998652.622706897</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9940640.036161739</v>
+        <v>9956957.483222375</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>249.4770711797308</v>
       </c>
       <c r="V2" t="n">
-        <v>238.7813195717449</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>36.38253456427845</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>95.65907486292593</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>15.83694765564068</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>271.1908407302026</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>100.7244368624037</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>220.0668318715327</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>398.2527805383307</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>163.9628781690733</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1297,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>53.76383281196698</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>74.33825439219272</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444168</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899583</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>189.2380031216297</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>35.9987177458286</v>
       </c>
       <c r="U16" t="n">
-        <v>176.76214411214</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646564</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>219.4517041866519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>173.2052365248906</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695709</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>133.3722917337071</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
-        <v>170.7002125187786</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>99.98993057842301</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="G28" t="n">
-        <v>130.1208074460232</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="30">
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>115.4764219077143</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>84.7244787162974</v>
       </c>
     </row>
     <row r="32">
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>36.86080948088104</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>62.36981422367045</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3433,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>2.60701007315213</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.4286493356916</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>53.82913822150097</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>40.96105405076426</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>1976.897437936762</v>
       </c>
       <c r="V2" t="n">
-        <v>2768.144153427816</v>
+        <v>1976.897437936762</v>
       </c>
       <c r="W2" t="n">
-        <v>2768.144153427816</v>
+        <v>1976.897437936762</v>
       </c>
       <c r="X2" t="n">
-        <v>2394.678395166736</v>
+        <v>1603.431679675683</v>
       </c>
       <c r="Y2" t="n">
-        <v>2004.539063190924</v>
+        <v>1213.292347699871</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.4793381277382</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>869.3659810263853</v>
       </c>
       <c r="X4" t="n">
-        <v>651.920382101508</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.1278029579779</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1957.346298904865</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794324</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>2739.810011970445</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>1957.346298904865</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856.716516305189</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="C7" t="n">
-        <v>856.716516305189</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D7" t="n">
-        <v>706.5998768928532</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E7" t="n">
-        <v>558.6867833104601</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F7" t="n">
-        <v>411.7968358125497</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.60866391532</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484846</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484846</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278959</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278959</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="X7" t="n">
-        <v>1259.157560278959</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="Y7" t="n">
-        <v>1038.364981135429</v>
+        <v>602.8474182853497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796261</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>921.7704558796261</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>921.7704558796261</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>921.7704558796261</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>510.7845510900185</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4805,13 +4807,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3049.696084278616</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2718.633196935045</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>936.5735814686077</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.2700148307999</v>
+        <v>2249.428814712451</v>
       </c>
       <c r="C10" t="n">
-        <v>607.3338319028931</v>
+        <v>2080.492631784544</v>
       </c>
       <c r="D10" t="n">
-        <v>457.2171924905573</v>
+        <v>1930.375992372209</v>
       </c>
       <c r="E10" t="n">
-        <v>309.3040989081642</v>
+        <v>1930.375992372209</v>
       </c>
       <c r="F10" t="n">
-        <v>309.3040989081642</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G10" t="n">
-        <v>141.6012622828831</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>3014.008748936224</v>
       </c>
       <c r="U10" t="n">
-        <v>1548.361223971665</v>
+        <v>2724.905882061868</v>
       </c>
       <c r="V10" t="n">
-        <v>1293.676735765778</v>
+        <v>2470.221393855981</v>
       </c>
       <c r="W10" t="n">
-        <v>1004.259565728817</v>
+        <v>2470.221393855981</v>
       </c>
       <c r="X10" t="n">
-        <v>776.2700148307999</v>
+        <v>2470.221393855981</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.2700148307999</v>
+        <v>2249.428814712451</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168643</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362717</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>866.4638174991043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1786.311582407852</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1496.894412370891</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1268.904861472874</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1048.112282329344</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961529</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429803</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>119.2902967703778</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969299</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263521</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356143</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232785</v>
       </c>
       <c r="E19" t="n">
         <v>631.7012443408906</v>
@@ -5668,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1972.677130397315</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.259960360355</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1280.315625093761</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891998</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446605</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>376.4492432300692</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>228.5361496476761</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2207.492922742988</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1987.891457765928</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1698.816231110126</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1444.131742904239</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1154.714572867279</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>926.7250219692613</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6363,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421608</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6506,7 +6508,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E31" t="n">
-        <v>377.6556127449245</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>210.4595134598044</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797186</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6774,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>700.7543264856228</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856228</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2383.963271233119</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2164.361806256059</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1875.286579600257</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V34" t="n">
-        <v>1620.602091394371</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W34" t="n">
-        <v>1331.18492135741</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X34" t="n">
-        <v>1103.195370459393</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y34" t="n">
-        <v>882.4027913158625</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6959,22 +6961,22 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,19 +7022,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.6145409888043</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="C40" t="n">
-        <v>549.6145409888043</v>
+        <v>2939.372134388645</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888043</v>
+        <v>2789.255494976309</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>2641.342401393916</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7591,16 +7593,16 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V43" t="n">
         <v>2018.514925172274</v>
@@ -7628,37 +7630,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>54.95314511566477</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>111.75466353733</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>62.89964020219833</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>181.4067325814597</v>
       </c>
       <c r="U16" t="n">
-        <v>109.4223302771041</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>45.37941682720418</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>12.04875628922412</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>10.32607348286601</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>186.533067758168</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="G28" t="n">
-        <v>35.40333084624569</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.81829093850963</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>133.8601746357974</v>
       </c>
     </row>
     <row r="32">
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.6564717779741</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.9159882634389</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.40333084624569</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>91.59190980143028</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -25840,10 +25842,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>245.5619442858267</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>870633.0738676701</v>
+        <v>878951.7723691693</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>870633.0738676701</v>
+        <v>878951.7723691693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846792</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830049</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830047</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.461807356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099822</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551207</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136726.2736921025</v>
+      </c>
+      <c r="D4" t="n">
         <v>88524.23512810789</v>
       </c>
-      <c r="C4" t="n">
-        <v>88524.23512810786</v>
-      </c>
-      <c r="D4" t="n">
-        <v>88524.23512810787</v>
-      </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
+        <v>9337.200356756508</v>
+      </c>
+      <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="I4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.200356756653</v>
@@ -26448,16 +26450,16 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756628</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-950473.6825120952</v>
+        <v>-769686.5908028684</v>
       </c>
       <c r="C6" t="n">
-        <v>378271.0632154974</v>
+        <v>345065.1927730511</v>
       </c>
       <c r="D6" t="n">
-        <v>378271.0632154976</v>
+        <v>185643.9227751595</v>
       </c>
       <c r="E6" t="n">
-        <v>129130.4277949858</v>
+        <v>129130.4277949848</v>
       </c>
       <c r="F6" t="n">
         <v>454542.8896023409</v>
       </c>
       <c r="G6" t="n">
+        <v>454542.8896023413</v>
+      </c>
+      <c r="H6" t="n">
         <v>454542.8896023408</v>
       </c>
-      <c r="H6" t="n">
-        <v>454542.8896023405</v>
-      </c>
       <c r="I6" t="n">
-        <v>454542.8896023407</v>
+        <v>454542.8896023408</v>
       </c>
       <c r="J6" t="n">
-        <v>237011.6872050635</v>
+        <v>286937.7117923585</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023405</v>
+        <v>454542.8896023404</v>
       </c>
       <c r="L6" t="n">
-        <v>454542.8896023408</v>
+        <v>406248.9195941502</v>
       </c>
       <c r="M6" t="n">
-        <v>369487.8616668287</v>
+        <v>369487.8616668284</v>
       </c>
       <c r="N6" t="n">
-        <v>454542.8896023407</v>
+        <v>454542.8896023409</v>
       </c>
       <c r="O6" t="n">
-        <v>454542.8896023408</v>
+        <v>454542.8896023409</v>
       </c>
       <c r="P6" t="n">
-        <v>454542.8896023408</v>
+        <v>454542.889602341</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.584832100039</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000381</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973566</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>1.568178948731173</v>
       </c>
       <c r="V2" t="n">
-        <v>88.97093889839002</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>130.8642865343494</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>130.0505805261112</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>333.4040210617723</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>115.047097925851</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>65.3013713966245</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>32.07081145229532</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.66894511512271</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>87.03229378982866</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>91.65721521096427</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>70.41676052212806</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-8.748206449543158e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28728,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>5.184593495262864e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28849,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.833200258261058e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29578,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="30">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>272.7569329364655</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>689.3300812557316</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>137.7376326175063</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>150.7833302198371</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>208.6096528357807</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>138.5955196772182</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,10 +33505,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33517,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33740,7 +33742,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,10 +33982,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>210.3948924365567</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34126,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34211,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>730.4561889249562</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34445,16 +34447,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>631.9617651335544</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>446.1502447085388</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>134.2025531565913</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>557.9883691723983</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>6.395920534173043</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>23.94570355317042</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>66.47561891376233</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,19 +36439,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,10 +37153,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37165,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,10 +37630,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>68.26085851453838</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>599.1144768416229</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998652.622706897</v>
+        <v>1994556.981202133</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9956957.483222375</v>
+        <v>9956957.483222373</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>398.4217586095697</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>249.4770711797308</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>94.83276152020544</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>95.65907486292593</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>42.41966355585586</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>271.1908407302026</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>220.0668318715327</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>177.2979137777563</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>163.9628781690733</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>53.76383281196698</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444168</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>105.6507867899583</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>135.4684761590174</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>35.9987177458286</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>158.458949622448</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.2052365248906</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695709</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>99.92818157412087</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>133.3722917337071</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>99.98993057842301</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>132.2740511637363</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>84.7244787162974</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>36.86080948088104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>2.60701007315213</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>53.82913822150097</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>71.60395572454081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>60.11729550773637</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.292347699871</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>1608.732863380353</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>1250.467164773602</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>864.6789121753579</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>453.6930073857504</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1976.897437936762</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.897437936762</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1976.897437936762</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1603.431679675683</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1213.292347699871</v>
+        <v>1977.695380320764</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4418,19 +4418,19 @@
         <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>315.0239194619522</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>147.0374547702308</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1158.783151063346</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>869.3659810263853</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X4" t="n">
-        <v>772.7406528820156</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.9480737384855</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.346298904865</v>
+        <v>474.7217947496369</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.383781964454</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.118083357703</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>105.7592778092252</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2231.276441056585</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2231.276441056585</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1957.346298904865</v>
+        <v>861.3216348137587</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.793729425659</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>602.8474182853497</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>602.8474182853497</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>452.7307788730139</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.715959553122</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>602.8474182853497</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>602.8474182853497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>602.8474182853497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>602.8474182853497</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490879</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926352</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>298.6298631030276</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>287.5978169884282</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>3049.696084278616</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>2718.633196935045</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W8" t="n">
-        <v>2718.633196935045</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X8" t="n">
-        <v>2345.167438673965</v>
+        <v>2599.371408077975</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>2209.232076102163</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686077</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064753</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080133</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2249.428814712451</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>2080.492631784544</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>1930.375992372209</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>1930.375992372209</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>3014.008748936224</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>2724.905882061868</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>2470.221393855981</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>2470.221393855981</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>2470.221393855981</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>2249.428814712451</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168643</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362717</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797194</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191927</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191927</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845745</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5296,34 +5296,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>245.230692780394</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961529</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622705</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.624977674364</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>119.2902967703778</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>119.2902967703778</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703778</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263521</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356143</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232785</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U19" t="n">
-        <v>2227.361618603202</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.677130397315</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.259960360355</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.270409462337</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093761</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.55866301478</v>
@@ -5767,16 +5767,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492579</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703119</v>
+        <v>801.6918836311994</v>
       </c>
       <c r="C22" t="n">
-        <v>526.565882642405</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>376.4492432300692</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>228.5361496476761</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5919,7 +5919,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5928,34 +5928,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703119</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,52 +6220,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6481,31 +6481,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290468</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C31" t="n">
-        <v>699.7311804011399</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159286</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6785,22 +6785,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>985.7836617409695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>816.8474788130626</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1388.224705714739</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1167.432126571209</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.6374272687975</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1431.068022140585</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1203.078471242567</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.2858920990373</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2939.372134388645</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2939.372134388645</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2789.255494976309</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2641.342401393916</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>30.36925650589438</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>54.95314511566477</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.75466353733</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>116.6691671648106</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>181.4067325814597</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.7546635373309</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.37941682720418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>67.31863952450696</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>12.04875628922412</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>186.533067758168</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>118.3918499711702</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>34.97276993489155</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.8601746357974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>111.7546635373313</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.9159882634389</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>91.59190980143028</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>226.0671788815078</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856043.1451846792</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846791</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049983</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>565002.6197830049</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830042</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403374</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.461807356</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819047</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551207</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810795</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756508</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
+        <v>9337.20035675655</v>
+      </c>
+      <c r="K4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756653</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769686.5908028684</v>
+        <v>-769686.5908028685</v>
       </c>
       <c r="C6" t="n">
-        <v>345065.1927730511</v>
+        <v>345065.192773051</v>
       </c>
       <c r="D6" t="n">
-        <v>185643.9227751595</v>
+        <v>185643.9227751597</v>
       </c>
       <c r="E6" t="n">
-        <v>129130.4277949848</v>
+        <v>128783.0485406284</v>
       </c>
       <c r="F6" t="n">
-        <v>454542.8896023409</v>
+        <v>454195.510347984</v>
       </c>
       <c r="G6" t="n">
-        <v>454542.8896023413</v>
+        <v>454195.510347984</v>
       </c>
       <c r="H6" t="n">
-        <v>454542.8896023408</v>
+        <v>454195.510347984</v>
       </c>
       <c r="I6" t="n">
-        <v>454542.8896023408</v>
+        <v>454195.510347984</v>
       </c>
       <c r="J6" t="n">
-        <v>286937.7117923585</v>
+        <v>286590.3325380012</v>
       </c>
       <c r="K6" t="n">
-        <v>454542.8896023404</v>
+        <v>454195.510347984</v>
       </c>
       <c r="L6" t="n">
-        <v>406248.9195941502</v>
+        <v>405901.5403397933</v>
       </c>
       <c r="M6" t="n">
-        <v>369487.8616668284</v>
+        <v>369140.4824124717</v>
       </c>
       <c r="N6" t="n">
-        <v>454542.8896023409</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="O6" t="n">
-        <v>454542.8896023409</v>
+        <v>454195.5103479839</v>
       </c>
       <c r="P6" t="n">
-        <v>454542.889602341</v>
+        <v>454195.5103479839</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000381</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973566</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.12594416338425</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>1.568178948731173</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>52.41874763492341</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27590,7 +27590,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>130.0505805261112</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>364.4563821858555</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,19 +27672,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>115.047097925851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>32.07081145229532</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.3098506095641</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>87.03229378982866</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>91.65721521096427</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.748206449543158e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28730,7 +28730,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>5.184593495262864e-12</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439381</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862125</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>689.3300812557316</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31925,31 +31925,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
         <v>0.1345549672467222</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420756</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>246.2467565146292</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473075</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>137.7376326175063</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32162,31 +32162,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,34 +32314,34 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>150.7833302198371</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,40 +32463,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32505,7 +32505,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32554,31 +32554,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>208.6096528357807</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32645,7 +32645,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,13 +32785,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>138.5955196772182</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33505,25 +33505,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,22 +33742,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,22 +34216,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>730.4561889249562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34786,7 +34786,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>631.9617651335544</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>280.0487856294267</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
@@ -35026,7 +35026,7 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>446.1502447085388</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641942</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>557.9883691723983</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774958</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674334</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>6.395920534173043</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>23.94570355317042</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>66.47561891376233</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36290,7 +36290,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7540807028592577</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,22 +37864,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>599.1144768416229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1994556.981202133</v>
+        <v>1996317.511504918</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>398.4217586095697</v>
+        <v>380.9608087170977</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.83276152020544</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18.77568304716705</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>42.41966355585586</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>271.2173873551924</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>64.50612826256169</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777563</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>240.3635537979631</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991681</v>
+        <v>217.0914199928489</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>134.3391137331266</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>135.4684761590174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>158.458949622448</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>105.6507867899574</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>99.92818157412087</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>201.6887504327734</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>132.2740511637363</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426603</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1977.695380320764</v>
+        <v>1591.095540256644</v>
       </c>
       <c r="C2" t="n">
-        <v>1608.732863380353</v>
+        <v>1591.095540256644</v>
       </c>
       <c r="D2" t="n">
-        <v>1250.467164773602</v>
+        <v>1232.829841649893</v>
       </c>
       <c r="E2" t="n">
-        <v>864.6789121753579</v>
+        <v>847.0415890516488</v>
       </c>
       <c r="F2" t="n">
-        <v>453.6930073857504</v>
+        <v>436.0556842620412</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4348,34 +4348,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="X2" t="n">
-        <v>1977.695380320764</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1977.695380320764</v>
+        <v>1977.695380320765</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.50262973664</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598626</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C4" t="n">
-        <v>461.9138669598626</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D4" t="n">
-        <v>461.9138669598626</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>461.9138669598626</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>315.0239194619522</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>147.0374547702308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1514.8973771788</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1225.779039682638</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>474.7217947496369</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="C5" t="n">
-        <v>105.7592778092252</v>
+        <v>1491.907945722349</v>
       </c>
       <c r="D5" t="n">
-        <v>105.7592778092252</v>
+        <v>1133.642247115599</v>
       </c>
       <c r="E5" t="n">
-        <v>105.7592778092252</v>
+        <v>747.8539945173545</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>336.868089727747</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>325.2037434924399</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
@@ -4573,46 +4573,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.46096678957</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y5" t="n">
-        <v>861.3216348137587</v>
+        <v>1878.507785786471</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4716,16 +4716,16 @@
         <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4734,7 +4734,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W7" t="n">
-        <v>1463.519709552058</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.66971909763</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490879</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926352</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030276</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884282</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609169</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077975</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102163</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>935.9190763285891</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>631.7012443408905</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408905</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1551.549009249638</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1262.131839212678</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1034.14228831466</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>813.3497091711303</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.8692823226941</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>473.9330993947872</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>323.8164599824514</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1817.401535437329</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1562.717047231442</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1273.299877194481</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>1045.310326296464</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.5177471529338</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2273.199413378161</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168624</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,55 +5886,55 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6918836311994</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C22" t="n">
-        <v>700.7543264856228</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
@@ -5952,10 +5952,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614391</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6688,16 +6688,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>129.4330134067487</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589438</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>265.0304328515136</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>32.90770736550124</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>116.6691671648106</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>111.7546635373309</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>67.31863952450696</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>16.89590291932143</v>
       </c>
     </row>
     <row r="23">
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>34.97276993489155</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>65.54986409393067</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856043.1451846791</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856043.1451846788</v>
+        <v>856043.145184679</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856043.145184679</v>
+        <v>856043.1451846788</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="P2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403374</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819047</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,34 +26423,34 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810795</v>
+        <v>88524.2351281078</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756533</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
+        <v>9337.200356756644</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9337.200356756541</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="J4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9337.200356756592</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9337.20035675655</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26459,7 +26459,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-769686.5908028685</v>
+        <v>-769686.5908028686</v>
       </c>
       <c r="C6" t="n">
-        <v>345065.192773051</v>
+        <v>345065.1927730512</v>
       </c>
       <c r="D6" t="n">
-        <v>185643.9227751597</v>
+        <v>185643.9227751596</v>
       </c>
       <c r="E6" t="n">
-        <v>128783.0485406284</v>
+        <v>129095.6898695502</v>
       </c>
       <c r="F6" t="n">
-        <v>454195.510347984</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="G6" t="n">
-        <v>454195.510347984</v>
+        <v>454508.1516769049</v>
       </c>
       <c r="H6" t="n">
-        <v>454195.510347984</v>
+        <v>454508.151676905</v>
       </c>
       <c r="I6" t="n">
-        <v>454195.510347984</v>
+        <v>454508.151676905</v>
       </c>
       <c r="J6" t="n">
-        <v>286590.3325380012</v>
+        <v>286902.9738669224</v>
       </c>
       <c r="K6" t="n">
-        <v>454195.510347984</v>
+        <v>454508.1516769051</v>
       </c>
       <c r="L6" t="n">
-        <v>405901.5403397933</v>
+        <v>406214.1816687144</v>
       </c>
       <c r="M6" t="n">
-        <v>369140.4824124717</v>
+        <v>369453.1237413934</v>
       </c>
       <c r="N6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.151676905</v>
       </c>
       <c r="O6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.151676905</v>
       </c>
       <c r="P6" t="n">
-        <v>454195.5103479839</v>
+        <v>454508.151676905</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022534</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.12594416338425</v>
+        <v>30.58689405585631</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>52.41874763492341</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>175.8867773145704</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>364.4563821858555</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>29.80116520721299</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>187.6315150612663</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095641</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>108.8774149194499</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356961</v>
+        <v>69.12041821276401</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.655474238666767e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,28 +31284,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31320,7 +31320,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31369,10 +31369,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31381,7 +31381,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31442,19 +31442,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>577.7447198439381</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>246.2467565146292</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>464.8576954028719</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294267</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34938,28 +34938,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35032,10 +35032,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>514.709961975046</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35102,7 +35102,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>439.1903400640639</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.4053175402702</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
